--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1516110.61021238</v>
+        <v>1548688.824727578</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584668</v>
+        <v>460545.8926584661</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>203.3816115706753</v>
+        <v>104.3704036188475</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>215.5717580809477</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
-        <v>30.42300197988138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>183.4693513325733</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>65.88553544856782</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>14.59515906968671</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.627358361950463</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>323.9740782937608</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
@@ -1497,19 +1499,19 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>184.9313490208434</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.26887465367551</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>114.7098731467902</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1695,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1746,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>94.38897766723555</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>92.4784086463653</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
         <v>54.86879163620181</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>135.259675501402</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.518805211386138</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1932,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571426</v>
@@ -1977,10 +1979,10 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.54254454879647</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>75.58673470997151</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>273.9368597890359</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.0823652432665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2168,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>91.6867458199809</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.9289512464142</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>138.8545967049585</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -2372,7 +2374,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>1.452325108198911</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>61.12808787351305</v>
       </c>
       <c r="U24" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.96773836406945</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.6635172592367</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>116.7586193789382</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>172.521395944542</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68.97619012750164</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2649,10 +2651,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>82.1264910004315</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>36.68410581117764</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>261.228320183576</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>62.90796662656692</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>399.1230029877914</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -2849,16 +2851,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>29.3839173639047</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>149.3187780068791</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>114.7943575370069</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>15.9026150950022</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.9274041658029</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>110.2210508244299</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3117,10 +3119,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.456834824088996</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>169.4333667739971</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>77.6171277477774</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>149.025222227215</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>294.750150586398</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>24.64815776426665</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>120.1263698699159</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>74.54211823523698</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.3828275000338</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>93.90727742760758</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3590,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>104.262613881998</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>124.367054482162</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>50.15718953603389</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>58.96983631756912</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>286.8031820616043</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.8568289496564</v>
+        <v>9.136888730010115</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3831,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
@@ -3885,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>162.3985825025964</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.57056692594167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>241.5784911624466</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>64.67353833650434</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4027,7 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>61.12808787351305</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>115.1165353722839</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>26.85544949825411</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4364,16 +4366,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M3" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>432.4774131586771</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>432.4774131586771</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4547,22 +4549,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E5" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="F5" t="n">
-        <v>259.4103516356203</v>
-      </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>536.8878951967741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>705.1032322168421</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>705.1032322168421</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>705.1032322168421</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>705.1032322168421</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4765,7 +4767,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4787,10 +4789,10 @@
         <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="F8" t="n">
         <v>223.6192102101089</v>
-      </c>
-      <c r="F8" t="n">
-        <v>216.6737094609055</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4838,16 +4840,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
         <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>729.290772582924</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>554.837743301797</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
         <v>110.334904905842</v>
@@ -4893,13 +4895,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>897.506109602992</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>897.506109602992</v>
       </c>
       <c r="W9" t="n">
-        <v>125.0774898247174</v>
+        <v>897.506109602992</v>
       </c>
       <c r="X9" t="n">
-        <v>110.334904905842</v>
+        <v>897.506109602992</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>897.506109602992</v>
       </c>
     </row>
     <row r="10">
@@ -4978,19 +4980,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>377.243605767603</v>
+        <v>1630.903438287023</v>
       </c>
       <c r="C11" t="n">
-        <v>377.243605767603</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D11" t="n">
-        <v>377.243605767603</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E11" t="n">
-        <v>377.243605767603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F11" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G11" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
         <v>46.89499644164432</v>
@@ -5039,16 +5041,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2078.466660733312</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>1824.680238618179</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>1493.617351274609</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1140.848696004495</v>
+        <v>2017.503278351145</v>
       </c>
       <c r="X11" t="n">
-        <v>767.3829377434147</v>
+        <v>2017.503278351145</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.243605767603</v>
+        <v>2017.503278351145</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G12" t="n">
         <v>221.6448824165167</v>
@@ -5121,22 +5123,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5145,25 +5147,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U12" t="n">
-        <v>1923.529830251457</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1434.63147032802</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.507718257114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>1785.545201316702</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>1427.279502709952</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.491250111708</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>630.5053453221001</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5300,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5358,10 +5360,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
         <v>1125.906134925503</v>
@@ -5394,13 +5396,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1460.197257673872</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>195.7305522826212</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>195.7305522826212</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>195.7305522826212</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
         <v>102.3180182963936</v>
@@ -5455,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2087.181164129222</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.181164129222</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="D17" t="n">
-        <v>1728.915465522471</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E17" t="n">
-        <v>1343.127212924227</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F17" t="n">
-        <v>932.1413081346193</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>513.8695406175041</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>183.5209312915454</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915531</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W17" t="n">
-        <v>2087.181164129222</v>
+        <v>2337.155069343442</v>
       </c>
       <c r="X17" t="n">
-        <v>2087.181164129222</v>
+        <v>2337.155069343442</v>
       </c>
       <c r="Y17" t="n">
-        <v>2087.181164129222</v>
+        <v>2337.155069343442</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5592,7 +5594,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
         <v>121.6684232076319</v>
@@ -5625,19 +5627,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1923.529830251457</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5692,31 +5694,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>123.2452335224236</v>
       </c>
       <c r="V19" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W19" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>377.243605767603</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="C20" t="n">
-        <v>377.243605767603</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="D20" t="n">
-        <v>377.243605767603</v>
+        <v>1538.644820123415</v>
       </c>
       <c r="E20" t="n">
-        <v>377.243605767603</v>
+        <v>1152.856567525171</v>
       </c>
       <c r="F20" t="n">
-        <v>377.243605767603</v>
+        <v>741.8706627355634</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>323.5988952184483</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5756,10 +5758,10 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5777,25 +5779,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W20" t="n">
-        <v>929.5804400319823</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X20" t="n">
-        <v>556.1146817709025</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.243605767603</v>
+        <v>1896.910518730166</v>
       </c>
     </row>
     <row r="21">
@@ -5814,40 +5816,40 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>139.5078710072816</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F21" t="n">
-        <v>139.5078710072816</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="C22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="D22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="E22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="F22" t="n">
-        <v>515.4926565726222</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="G22" t="n">
-        <v>346.3547163191317</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="H22" t="n">
-        <v>187.3781536425449</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="X22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.7685734363102</v>
+        <v>1979.7824241432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>556.114681770903</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C23" t="n">
-        <v>187.1521648304912</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D23" t="n">
-        <v>187.1521648304912</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E23" t="n">
-        <v>187.1521648304912</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F23" t="n">
-        <v>187.1521648304912</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>187.1521648304912</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>187.1521648304912</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6008,7 +6010,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
         <v>2270.376276991246</v>
@@ -6020,19 +6022,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.411982645668</v>
+        <v>1865.731409702013</v>
       </c>
       <c r="V23" t="n">
-        <v>1282.349095302097</v>
+        <v>1534.668522358442</v>
       </c>
       <c r="W23" t="n">
-        <v>929.5804400319828</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="X23" t="n">
-        <v>556.114681770903</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="Y23" t="n">
-        <v>556.114681770903</v>
+        <v>791.7605351125167</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6096,22 +6098,22 @@
         <v>2284.306083296871</v>
       </c>
       <c r="T24" t="n">
-        <v>2284.306083296871</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>426.1201086060705</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="C25" t="n">
-        <v>426.1201086060705</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D25" t="n">
-        <v>426.1201086060705</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E25" t="n">
-        <v>426.1201086060705</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F25" t="n">
-        <v>426.1201086060705</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G25" t="n">
-        <v>346.3547163191317</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H25" t="n">
         <v>187.3781536425449</v>
@@ -6148,7 +6150,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L25" t="n">
         <v>194.9121237200978</v>
@@ -6184,13 +6186,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X25" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y25" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1660.918279468531</v>
+        <v>1008.393317206789</v>
       </c>
       <c r="C26" t="n">
-        <v>1291.95576252812</v>
+        <v>639.4308002663777</v>
       </c>
       <c r="D26" t="n">
-        <v>1291.95576252812</v>
+        <v>639.4308002663777</v>
       </c>
       <c r="E26" t="n">
-        <v>906.1675099298755</v>
+        <v>639.4308002663777</v>
       </c>
       <c r="F26" t="n">
-        <v>495.1816051402679</v>
+        <v>639.4308002663777</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>221.1590327492625</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I26" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J26" t="n">
         <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.902094927568</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244555</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6239,37 +6241,37 @@
         <v>1610.799342072557</v>
       </c>
       <c r="O26" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972114</v>
       </c>
       <c r="P26" t="n">
         <v>2224.886645733487</v>
       </c>
       <c r="Q26" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V26" t="n">
-        <v>2013.686934738646</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W26" t="n">
-        <v>1660.918279468531</v>
+        <v>1771.998407443681</v>
       </c>
       <c r="X26" t="n">
-        <v>1660.918279468531</v>
+        <v>1398.532649182601</v>
       </c>
       <c r="Y26" t="n">
-        <v>1660.918279468531</v>
+        <v>1008.393317206789</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>790.3481019751839</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>790.3481019751839</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>641.4136923139326</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>482.1762373084771</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>335.6416793353621</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>197.5667934680542</v>
       </c>
       <c r="H27" t="n">
         <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076324</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161163</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832907</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.884810267791</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540004</v>
       </c>
       <c r="Q27" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S27" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T27" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V27" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X27" t="n">
-        <v>1058.552139525482</v>
+        <v>998.1084007401378</v>
       </c>
       <c r="Y27" t="n">
-        <v>1058.552139525482</v>
+        <v>790.3481019751839</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2344.749822082216</v>
+        <v>2080.882831997797</v>
       </c>
       <c r="C28" t="n">
-        <v>2175.813639154309</v>
+        <v>2080.882831997797</v>
       </c>
       <c r="D28" t="n">
-        <v>2175.813639154309</v>
+        <v>1930.766192585461</v>
       </c>
       <c r="E28" t="n">
-        <v>2175.813639154309</v>
+        <v>1930.766192585461</v>
       </c>
       <c r="F28" t="n">
-        <v>2175.813639154309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
-        <v>2138.758986819787</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H28" t="n">
-        <v>1979.7824241432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I28" t="n">
-        <v>1839.299266942299</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J28" t="n">
         <v>1783.87624508755</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>1824.448464912936</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>1931.893372366004</v>
       </c>
       <c r="M28" t="n">
         <v>2055.568085482113</v>
@@ -6397,37 +6399,37 @@
         <v>2181.736706768751</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>2282.257553995578</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>2080.882831997797</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>2080.882831997797</v>
       </c>
       <c r="Y28" t="n">
-        <v>2344.749822082216</v>
+        <v>2080.882831997797</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.4383970745402</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="C29" t="n">
-        <v>46.89499644164432</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="D29" t="n">
-        <v>46.89499644164432</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="E29" t="n">
-        <v>46.89499644164432</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>945.7367356034601</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376119</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V29" t="n">
-        <v>1613.411982645668</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="W29" t="n">
-        <v>1260.643327375554</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="X29" t="n">
-        <v>887.1775691144737</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="Y29" t="n">
-        <v>497.038237138662</v>
+        <v>1356.722640393068</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.1634746939509</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>746.7104454128239</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>597.7760357515726</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>438.5385807461172</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
-        <v>292.0040227730022</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G30" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I30" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583286</v>
+        <v>642.6780758583291</v>
       </c>
       <c r="M30" t="n">
         <v>1125.906134925503</v>
@@ -6555,37 +6557,37 @@
         <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>2039.343247810004</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q30" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T30" t="n">
-        <v>2145.207124136247</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U30" t="n">
-        <v>1994.38007564445</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V30" t="n">
-        <v>1759.227967412707</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W30" t="n">
-        <v>1504.990610684506</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X30" t="n">
-        <v>1297.139110478973</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y30" t="n">
-        <v>1089.378811714019</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="C31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="D31" t="n">
-        <v>391.0727469424309</v>
+        <v>2194.633182669881</v>
       </c>
       <c r="E31" t="n">
-        <v>391.0727469424309</v>
+        <v>2046.720089087488</v>
       </c>
       <c r="F31" t="n">
-        <v>391.0727469424309</v>
+        <v>1899.830141589578</v>
       </c>
       <c r="G31" t="n">
-        <v>221.9348066889404</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>62.95824401235362</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912936</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366004</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995578</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082217</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>774.1232119888066</v>
+        <v>939.4617933521472</v>
       </c>
       <c r="C32" t="n">
-        <v>405.1606950483948</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376119</v>
@@ -6725,25 +6727,25 @@
         <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082217</v>
+        <v>2233.415427310065</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713795</v>
+        <v>2013.432667941644</v>
       </c>
       <c r="U32" t="n">
-        <v>2124.767062713795</v>
+        <v>2013.432667941644</v>
       </c>
       <c r="V32" t="n">
-        <v>2124.767062713795</v>
+        <v>1682.369780598073</v>
       </c>
       <c r="W32" t="n">
-        <v>1771.998407443681</v>
+        <v>1329.601125327959</v>
       </c>
       <c r="X32" t="n">
-        <v>1398.532649182601</v>
+        <v>1329.601125327959</v>
       </c>
       <c r="Y32" t="n">
-        <v>1008.393317206789</v>
+        <v>939.4617933521472</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404608</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593338</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>359.1890647980825</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>199.951609792627</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>53.41705181951201</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I33" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498452</v>
       </c>
       <c r="L33" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583291</v>
       </c>
       <c r="M33" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810004</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q33" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982772</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.79310469096</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731016</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525483</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605289</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>453.4106385108907</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="C34" t="n">
-        <v>453.4106385108907</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D34" t="n">
-        <v>453.4106385108907</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E34" t="n">
-        <v>453.4106385108907</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F34" t="n">
-        <v>453.4106385108907</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>284.2726982574002</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>125.2961355808134</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912936</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366004</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995578</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Y34" t="n">
-        <v>453.4106385108907</v>
+        <v>2123.957242938687</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1310.441992089288</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="C35" t="n">
-        <v>941.4794751488764</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="D35" t="n">
-        <v>583.213776542126</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="E35" t="n">
-        <v>197.4255239438817</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F35" t="n">
-        <v>197.4255239438817</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L35" t="n">
         <v>762.591673824455</v>
@@ -6965,22 +6967,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2087.181164129222</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>2087.181164129222</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>2087.181164129222</v>
+        <v>984.6216704673509</v>
       </c>
       <c r="X35" t="n">
-        <v>2087.181164129222</v>
+        <v>984.6216704673509</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.04183215341</v>
+        <v>984.6216704673509</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7017,19 +7019,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
         <v>2344.749822082216</v>
@@ -7038,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>168.2347639870139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>168.2347639870139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>168.2347639870139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
         <v>46.89499644164432</v>
@@ -7096,7 +7098,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200978</v>
@@ -7114,31 +7116,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W37" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.857513382056</v>
+        <v>1971.284063821137</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>1602.321546880725</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>1244.055848273975</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>858.2675956757305</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>447.2816908861229</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.902094927568</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244555</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972114</v>
       </c>
       <c r="P38" t="n">
         <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U38" t="n">
-        <v>2249.893986296754</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V38" t="n">
-        <v>1918.831098953184</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W38" t="n">
-        <v>1566.062443683069</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X38" t="n">
-        <v>1192.59668542199</v>
+        <v>1971.284063821137</v>
       </c>
       <c r="Y38" t="n">
-        <v>802.4573534461779</v>
+        <v>1971.284063821137</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>704.2697763643505</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>529.8167470832235</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>380.8823374219722</v>
       </c>
       <c r="E39" t="n">
-        <v>298.7453260127371</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F39" t="n">
-        <v>152.2107680396221</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G39" t="n">
-        <v>152.2107680396221</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076324</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161163</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832907</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.884810267791</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540004</v>
       </c>
       <c r="Q39" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T39" t="n">
         <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V39" t="n">
         <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>998.1084007401378</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>872.4851133844186</v>
       </c>
     </row>
     <row r="40">
@@ -7333,10 +7335,10 @@
         <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>1824.448464912936</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>1931.893372366004</v>
       </c>
       <c r="M40" t="n">
         <v>2055.568085482113</v>
@@ -7345,37 +7347,37 @@
         <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>2282.257553995578</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q40" t="n">
-        <v>2303.765562347826</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R40" t="n">
-        <v>2149.407627422406</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S40" t="n">
-        <v>1932.711800928527</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W40" t="n">
-        <v>1783.87624508755</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X40" t="n">
-        <v>1783.87624508755</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="Y40" t="n">
-        <v>1783.87624508755</v>
+        <v>1834.540072901726</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1212.631670769908</v>
+        <v>1325.250045950391</v>
       </c>
       <c r="C41" t="n">
-        <v>843.6691538294961</v>
+        <v>956.2875290099796</v>
       </c>
       <c r="D41" t="n">
-        <v>843.6691538294961</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="E41" t="n">
-        <v>457.8809012312519</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2285.184330852348</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2101.989217990325</v>
       </c>
       <c r="T41" t="n">
-        <v>2087.181164129222</v>
+        <v>2101.989217990325</v>
       </c>
       <c r="U41" t="n">
-        <v>1833.394742014089</v>
+        <v>2101.989217990325</v>
       </c>
       <c r="V41" t="n">
-        <v>1502.331854670518</v>
+        <v>2101.989217990325</v>
       </c>
       <c r="W41" t="n">
-        <v>1502.331854670518</v>
+        <v>2101.989217990325</v>
       </c>
       <c r="X41" t="n">
-        <v>1502.331854670518</v>
+        <v>2101.989217990325</v>
       </c>
       <c r="Y41" t="n">
-        <v>1212.631670769908</v>
+        <v>1711.849886014513</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>676.3513050563386</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>676.3513050563386</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>527.4168953950873</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>368.1794403896317</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
         <v>221.6448824165167</v>
@@ -7491,13 +7493,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7533,7 +7535,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.947818781887</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="C43" t="n">
-        <v>197.0116358539801</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="Y43" t="n">
-        <v>547.5962836121267</v>
+        <v>1952.812428015457</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1310.441992089288</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C44" t="n">
-        <v>941.4794751488764</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D44" t="n">
-        <v>941.4794751488764</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E44" t="n">
         <v>876.152668748367</v>
@@ -7673,25 +7675,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X44" t="n">
-        <v>2087.181164129222</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y44" t="n">
-        <v>1697.04183215341</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
         <v>2344.749822082216</v>
@@ -7752,25 +7754,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="T45" t="n">
-        <v>2123.072528197426</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="G46" t="n">
         <v>1783.87624508755</v>
@@ -7828,28 +7830,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R46" t="n">
-        <v>2228.470493423344</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S46" t="n">
-        <v>2011.774666929465</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="T46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="X46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.87624508755</v>
+        <v>2100.927278923434</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9008,13 @@
         <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>462.7376461954051</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>200.8922269696948</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082742</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>307.2673352605758</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579841</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.4978194579837</v>
+        <v>47.90390621998533</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>57.0889669861391</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>209.155573412787</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>25.26689042365217</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23349,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>66.76363414007622</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23425,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>217.3505629698199</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268.0239685166904</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23583,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23634,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>111.3840075362419</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.59991698252628</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.42552004830515</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
@@ -23792,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>341.7221635060268</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23820,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23865,10 +23867,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.28943563314083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23944,10 +23946,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>176.5509086138565</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>53.10826344366319</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>209.1555734127871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>45.00739118865397</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24136,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>46.59991698252631</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,7 +24226,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>24.83059884474872</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>249.7962327857823</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,10 +24338,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>136.4191830929966</v>
       </c>
       <c r="U24" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>88.47882248688617</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>88.92113609285809</v>
       </c>
     </row>
     <row r="26">
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3304304630058</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>154.5237272881571</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.5569935223657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24537,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>23.83730805897792</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.762455039778</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>25.29467815301501</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>302.3649251444406</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>14.96604685415258</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>130.2373021845455</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>76.57988169550521</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>52.6522033139487</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>123.1757105338894</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24880,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150.8064374976777</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>71.1421109089739</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24974,13 +24976,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25005,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>130.2373021845459</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>10.39861340794016</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>61.46119788111417</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>265.0638276147289</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>54.49081813101498</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25242,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>105.6924183331601</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>47.32019098103974</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25354,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>211.7472155662992</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>17.70622234191018</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
@@ -25445,19 +25447,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>157.3412804663736</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>1.701185177411446</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>81.31564129514237</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>129.6747906459034</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25646,7 +25648,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>14.65997332249199</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>99.43475659444925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>53.67635470021091</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25719,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25837,10 +25839,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>123.8907512989397</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.0140864261531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>123.694400608561</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>317.2568317357574</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>98.49313167493716</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26068,13 +26070,13 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>37.69782020388146</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>198.7639881252413</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>621111.0939513822</v>
+        <v>621111.0939513824</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>621111.0939513822</v>
+        <v>621111.0939513823</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>621111.0939513822</v>
+        <v>621111.0939513824</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621111.0939513824</v>
+        <v>621111.0939513823</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621111.0939513823</v>
+        <v>621111.0939513822</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621111.0939513824</v>
+        <v>621111.0939513822</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>621111.0939513822</v>
+        <v>621111.0939513821</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>330470.1247052694</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="F2" t="n">
-        <v>330470.1247052694</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="G2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="H2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052694</v>
       </c>
       <c r="I2" t="n">
-        <v>330470.1247052693</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="J2" t="n">
         <v>330470.1247052693</v>
@@ -26347,13 +26349,13 @@
         <v>330470.1247052691</v>
       </c>
       <c r="N2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="O2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.124705269</v>
       </c>
       <c r="P2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052693</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26430,13 +26432,13 @@
         <v>26710.01986761898</v>
       </c>
       <c r="G4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="H4" t="n">
         <v>26710.01986761898</v>
       </c>
       <c r="I4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="J4" t="n">
         <v>26710.01986761898</v>
@@ -26454,7 +26456,7 @@
         <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
         <v>26710.01986761898</v>
@@ -26491,19 +26493,19 @@
         <v>42221.72212544655</v>
       </c>
       <c r="J5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="K5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="L5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="M5" t="n">
         <v>42221.72212544655</v>
       </c>
       <c r="N5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="O5" t="n">
         <v>42221.72212544655</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79872.6100227891</v>
+        <v>79872.61002278893</v>
       </c>
       <c r="C6" t="n">
-        <v>160642.0415543368</v>
+        <v>160642.0415543366</v>
       </c>
       <c r="D6" t="n">
-        <v>160642.0415543366</v>
+        <v>160642.0415543365</v>
       </c>
       <c r="E6" t="n">
-        <v>-84073.96006674878</v>
+        <v>-84073.96006674903</v>
       </c>
       <c r="F6" t="n">
-        <v>261538.3827122038</v>
+        <v>261538.3827122037</v>
       </c>
       <c r="G6" t="n">
         <v>261538.3827122037</v>
       </c>
       <c r="H6" t="n">
-        <v>261538.3827122036</v>
+        <v>261538.3827122038</v>
       </c>
       <c r="I6" t="n">
-        <v>261538.3827122038</v>
+        <v>261538.3827122037</v>
       </c>
       <c r="J6" t="n">
         <v>198478.4401130975</v>
       </c>
       <c r="K6" t="n">
-        <v>261538.3827122038</v>
+        <v>261538.3827122037</v>
       </c>
       <c r="L6" t="n">
-        <v>261538.3827122037</v>
+        <v>261538.3827122036</v>
       </c>
       <c r="M6" t="n">
         <v>175519.8488921276</v>
       </c>
       <c r="N6" t="n">
-        <v>261538.3827122037</v>
+        <v>261538.3827122035</v>
       </c>
       <c r="O6" t="n">
-        <v>261538.3827122036</v>
+        <v>261538.3827122035</v>
       </c>
       <c r="P6" t="n">
-        <v>261538.3827122035</v>
+        <v>261538.3827122038</v>
       </c>
     </row>
   </sheetData>
@@ -26756,22 +26758,22 @@
         <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="K3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="M3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -26811,19 +26813,19 @@
         <v>586.1874555205541</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="K4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="L4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="M4" t="n">
         <v>586.1874555205541</v>
       </c>
       <c r="N4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="O4" t="n">
         <v>586.1874555205541</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.6272392768849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>2.391373632802186</v>
+        <v>101.40258158463</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27555,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,25 +27621,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>191.3042876607638</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27749,19 +27751,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
-        <v>202.3775851695439</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8333861825618</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27980,22 +27982,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>160.055846632407</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>191.1778261337908</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28050,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -32704,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32725,22 +32727,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32795,25 +32797,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32943,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32962,22 +32964,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
@@ -33032,25 +33034,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P27" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T27" t="n">
         <v>2.617457728311981</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N28" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T28" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33180,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
@@ -33199,22 +33201,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P29" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S29" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I30" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J30" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K30" t="n">
         <v>104.8606541711232</v>
@@ -33269,25 +33271,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M30" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N30" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P30" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R30" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S30" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T30" t="n">
         <v>2.617457728311981</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I31" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L31" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N31" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R31" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T31" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
@@ -33436,22 +33438,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P32" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S32" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I33" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J33" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K33" t="n">
         <v>104.8606541711232</v>
@@ -33506,25 +33508,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P33" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R33" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S33" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T33" t="n">
         <v>2.617457728311981</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I34" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L34" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N34" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R34" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T34" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33654,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
@@ -33673,22 +33675,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P35" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S35" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I36" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -33743,25 +33745,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N36" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P36" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R36" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S36" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T36" t="n">
         <v>2.617457728311981</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L37" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N37" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R37" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T37" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L40" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N40" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T40" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34781,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="M3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35021,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,7 +35500,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O12" t="n">
         <v>405.7701329255822</v>
@@ -35507,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
-        <v>488.1091505729034</v>
+        <v>485.1417330183086</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788765</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>167.911442166459</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36218,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36370,13 +36372,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36446,16 +36448,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
@@ -36607,13 +36609,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503842</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36686,13 +36688,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P27" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M28" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L29" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M29" t="n">
         <v>432.2802359107712</v>
@@ -36844,13 +36846,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P29" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>309.7110456222519</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -36923,7 +36925,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P30" t="n">
         <v>308.4914891638518</v>
@@ -36990,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L31" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M31" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N31" t="n">
         <v>127.4430518046842</v>
@@ -37005,7 +37007,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L32" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M32" t="n">
         <v>432.2802359107712</v>
@@ -37081,13 +37083,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P32" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q32" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547483</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37160,10 +37162,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P33" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L34" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M34" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N34" t="n">
         <v>127.4430518046842</v>
@@ -37242,7 +37244,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L35" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M35" t="n">
         <v>432.2802359107712</v>
@@ -37318,13 +37320,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37397,10 +37399,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P36" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M37" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N37" t="n">
         <v>127.4430518046842</v>
@@ -37479,7 +37481,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K39" t="n">
-        <v>228.5170346547479</v>
+        <v>14.92312141674958</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,13 +37636,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37868,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38111,7 +38113,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
